--- a/biology/Zoologie/Ceratophrys_cornuta/Ceratophrys_cornuta.xlsx
+++ b/biology/Zoologie/Ceratophrys_cornuta/Ceratophrys_cornuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratophrys cornuta est une espèce d'amphibiens de la famille des Ceratophryidae[1]. En français, elle est appelée Crapaud cornu du Brésil ou Grenouille cornue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratophrys cornuta est une espèce d'amphibiens de la famille des Ceratophryidae. En français, elle est appelée Crapaud cornu du Brésil ou Grenouille cornue.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans le bassin de l'Amazone jusqu'à 400 m d'altitude[1],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans le bassin de l'Amazone jusqu'à 400 m d'altitude, :
 en Guyane ;
 au Suriname ;
 au Guyana ;
@@ -550,7 +564,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit sur le sol des forêts tropicales humides d'Amérique du Sud, près des lacs et des rivières.
 </t>
@@ -581,13 +597,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratophrys cornuta mesure[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratophrys cornuta mesure :
 pour les mâles jusqu'à 72 mm pour une masse de 60 g ;
 pour les femelles jusqu'à 120 mm pour une masse de 130 g.
-Cette espèce a un aspect trapu avec un corps large et arrondi. Le mâle présente une face dorsale brune, jaune ou verte avec parfois toutes ces couleurs simultanément. La femelle est généralement brune (Bartlett &amp; Bartlett, 2003) et d'une taille supérieure au mâle. Sa face ventrale reprend la teinte de la face dorsale mais est plus claire et est teinté uniformément de sombre au niveau de la gorge[4]. Ses membres sont relativement courts. Ses yeux sont surmontés de petites « cornes ».
-Elle se nourrit d'autres amphibiens, de petits reptiles et de petits mammifères[4].
+Cette espèce a un aspect trapu avec un corps large et arrondi. Le mâle présente une face dorsale brune, jaune ou verte avec parfois toutes ces couleurs simultanément. La femelle est généralement brune (Bartlett &amp; Bartlett, 2003) et d'une taille supérieure au mâle. Sa face ventrale reprend la teinte de la face dorsale mais est plus claire et est teinté uniformément de sombre au niveau de la gorge. Ses membres sont relativement courts. Ses yeux sont surmontés de petites « cornes ».
+Elle se nourrit d'autres amphibiens, de petits reptiles et de petits mammifères.
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Ceratophrys cornuta et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est couramment proposée dans les animaleries[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est couramment proposée dans les animaleries.
 </t>
         </is>
       </c>
